--- a/dataanalysis/data/predictions/1400/09041425_1427.xlsx
+++ b/dataanalysis/data/predictions/1400/09041425_1427.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="85">
   <si>
     <t>序号</t>
   </si>
@@ -118,6 +118,9 @@
     <t>重合</t>
   </si>
   <si>
+    <t>预测成功</t>
+  </si>
+  <si>
     <t>2025-09-04</t>
   </si>
   <si>
@@ -266,12 +269,6 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -629,13 +626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:AI28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,19 +735,22 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:34">
+    <row r="2" spans="1:35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2">
         <v>300035</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>-1</v>
@@ -768,7 +768,7 @@
         <v>346923.29</v>
       </c>
       <c r="J2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2">
         <v>5</v>
@@ -809,8 +809,23 @@
       <c r="W2">
         <v>0.06</v>
       </c>
+      <c r="X2">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>25</v>
+      </c>
+      <c r="Z2">
+        <v>15.31</v>
+      </c>
       <c r="AC2" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
       </c>
       <c r="AF2">
         <v>0</v>
@@ -818,22 +833,25 @@
       <c r="AG2">
         <v>13.94336891174316</v>
       </c>
-      <c r="AH2" t="s">
-        <v>84</v>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3">
         <v>300092</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>-7.8</v>
@@ -851,7 +869,7 @@
         <v>117470.07</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -892,8 +910,23 @@
       <c r="W3">
         <v>0.74</v>
       </c>
+      <c r="X3">
+        <v>7.42</v>
+      </c>
+      <c r="Y3">
+        <v>20.86</v>
+      </c>
+      <c r="Z3">
+        <v>15.38</v>
+      </c>
       <c r="AC3" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -901,22 +934,25 @@
       <c r="AG3">
         <v>-5.413840770721436</v>
       </c>
-      <c r="AH3" t="s">
-        <v>84</v>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4">
         <v>300237</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>-5.39</v>
@@ -934,7 +970,7 @@
         <v>58661.74</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -975,8 +1011,23 @@
       <c r="W4">
         <v>0.38</v>
       </c>
+      <c r="X4">
+        <v>0.63</v>
+      </c>
+      <c r="Y4">
+        <v>3.25</v>
+      </c>
+      <c r="Z4">
+        <v>2.85</v>
+      </c>
       <c r="AC4" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -984,22 +1035,25 @@
       <c r="AG4">
         <v>2.856528282165527</v>
       </c>
-      <c r="AH4" t="s">
-        <v>84</v>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:35">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>300274</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5">
         <v>-0.11</v>
@@ -1017,7 +1071,7 @@
         <v>1769128.55</v>
       </c>
       <c r="J5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -1058,8 +1112,23 @@
       <c r="W5">
         <v>-0.14</v>
       </c>
+      <c r="X5">
+        <v>16.67</v>
+      </c>
+      <c r="Y5">
+        <v>137.66</v>
+      </c>
+      <c r="Z5">
+        <v>19.94</v>
+      </c>
       <c r="AC5" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1067,22 +1136,25 @@
       <c r="AG5">
         <v>-6.63705587387085</v>
       </c>
-      <c r="AH5" t="s">
-        <v>84</v>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:34">
+    <row r="6" spans="1:35">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6">
         <v>300308</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6">
         <v>-13.23</v>
@@ -1100,7 +1172,7 @@
         <v>3265305.8</v>
       </c>
       <c r="J6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6">
         <v>38</v>
@@ -1141,8 +1213,23 @@
       <c r="W6">
         <v>-0.38</v>
       </c>
+      <c r="X6">
+        <v>10.26</v>
+      </c>
+      <c r="Y6">
+        <v>418.88</v>
+      </c>
+      <c r="Z6">
+        <v>13.27</v>
+      </c>
       <c r="AC6" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1150,22 +1237,25 @@
       <c r="AG6">
         <v>3.954823017120361</v>
       </c>
-      <c r="AH6" t="s">
-        <v>84</v>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34">
+    <row r="7" spans="1:35">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>300328</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E7">
         <v>2.79</v>
@@ -1183,7 +1273,7 @@
         <v>295374.26</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K7">
         <v>13</v>
@@ -1224,8 +1314,23 @@
       <c r="W7">
         <v>0.29</v>
       </c>
+      <c r="X7">
+        <v>3.55</v>
+      </c>
+      <c r="Y7">
+        <v>19.62</v>
+      </c>
+      <c r="Z7">
+        <v>6.63</v>
+      </c>
       <c r="AC7" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -1233,22 +1338,25 @@
       <c r="AG7">
         <v>3.646710634231567</v>
       </c>
-      <c r="AH7" t="s">
-        <v>84</v>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:34">
+    <row r="8" spans="1:35">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8">
         <v>300410</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8">
         <v>20.02</v>
@@ -1266,7 +1374,7 @@
         <v>56884.31</v>
       </c>
       <c r="J8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1307,8 +1415,23 @@
       <c r="W8">
         <v>5.39</v>
       </c>
+      <c r="X8">
+        <v>6.2</v>
+      </c>
+      <c r="Y8">
+        <v>11.98</v>
+      </c>
+      <c r="Z8">
+        <v>14.2</v>
+      </c>
       <c r="AC8" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>1</v>
@@ -1316,22 +1439,25 @@
       <c r="AG8">
         <v>12.73860263824463</v>
       </c>
-      <c r="AH8" t="s">
-        <v>85</v>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:34">
+    <row r="9" spans="1:35">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>300450</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9">
         <v>-1.52</v>
@@ -1349,7 +1475,7 @@
         <v>797389.3100000001</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K9">
         <v>5</v>
@@ -1390,8 +1516,23 @@
       <c r="W9">
         <v>-0.32</v>
       </c>
+      <c r="X9">
+        <v>20.01</v>
+      </c>
+      <c r="Y9">
+        <v>53.8</v>
+      </c>
+      <c r="Z9">
+        <v>24.28</v>
+      </c>
       <c r="AC9" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1399,22 +1540,25 @@
       <c r="AG9">
         <v>-0.8985741138458252</v>
       </c>
-      <c r="AH9" t="s">
-        <v>84</v>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:35">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>300457</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10">
         <v>-3.46</v>
@@ -1432,7 +1576,7 @@
         <v>205206.99</v>
       </c>
       <c r="J10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1473,8 +1617,23 @@
       <c r="W10">
         <v>0.07000000000000001</v>
       </c>
+      <c r="X10">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="Y10">
+        <v>30.5</v>
+      </c>
+      <c r="Z10">
+        <v>15.14</v>
+      </c>
       <c r="AC10" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -1482,22 +1641,25 @@
       <c r="AG10">
         <v>2.452716112136841</v>
       </c>
-      <c r="AH10" t="s">
-        <v>84</v>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:35">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11">
         <v>300469</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>-6.31</v>
@@ -1515,7 +1677,7 @@
         <v>142247.96</v>
       </c>
       <c r="J11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K11">
         <v>11</v>
@@ -1556,8 +1718,23 @@
       <c r="W11">
         <v>-0.05</v>
       </c>
+      <c r="X11">
+        <v>8.94</v>
+      </c>
+      <c r="Y11">
+        <v>70.5</v>
+      </c>
+      <c r="Z11">
+        <v>14.08</v>
+      </c>
       <c r="AC11" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>1</v>
       </c>
       <c r="AF11">
         <v>0</v>
@@ -1565,22 +1742,25 @@
       <c r="AG11">
         <v>1.640859961509705</v>
       </c>
-      <c r="AH11" t="s">
-        <v>84</v>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:35">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12">
         <v>300486</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12">
         <v>0.58</v>
@@ -1598,7 +1778,7 @@
         <v>187550.16</v>
       </c>
       <c r="J12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K12">
         <v>12</v>
@@ -1639,8 +1819,23 @@
       <c r="W12">
         <v>0.06</v>
       </c>
+      <c r="X12">
+        <v>-1.8</v>
+      </c>
+      <c r="Y12">
+        <v>27.45</v>
+      </c>
+      <c r="Z12">
+        <v>4.77</v>
+      </c>
       <c r="AC12" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -1648,22 +1843,25 @@
       <c r="AG12">
         <v>0.3753781020641327</v>
       </c>
-      <c r="AH12" t="s">
-        <v>84</v>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:35">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13">
         <v>300827</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>12.85</v>
@@ -1681,7 +1879,7 @@
         <v>432581.38</v>
       </c>
       <c r="J13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1722,8 +1920,23 @@
       <c r="W13">
         <v>0.93</v>
       </c>
+      <c r="X13">
+        <v>3.93</v>
+      </c>
+      <c r="Y13">
+        <v>37.1</v>
+      </c>
+      <c r="Z13">
+        <v>9.18</v>
+      </c>
       <c r="AC13" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>1</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -1731,22 +1944,25 @@
       <c r="AG13">
         <v>-0.8760883212089539</v>
       </c>
-      <c r="AH13" t="s">
-        <v>84</v>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:35">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14">
         <v>301008</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <v>-1.45</v>
@@ -1764,7 +1980,7 @@
         <v>42134.68</v>
       </c>
       <c r="J14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K14">
         <v>8</v>
@@ -1805,8 +2021,23 @@
       <c r="W14">
         <v>-0.01</v>
       </c>
+      <c r="X14">
+        <v>1.33</v>
+      </c>
+      <c r="Y14">
+        <v>35.09</v>
+      </c>
+      <c r="Z14">
+        <v>3.21</v>
+      </c>
       <c r="AC14" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -1814,22 +2045,25 @@
       <c r="AG14">
         <v>6.144924163818359</v>
       </c>
-      <c r="AH14" t="s">
-        <v>84</v>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:35">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15">
         <v>301031</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15">
         <v>-4.35</v>
@@ -1847,7 +2081,7 @@
         <v>80469.41</v>
       </c>
       <c r="J15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -1888,8 +2122,23 @@
       <c r="W15">
         <v>0.96</v>
       </c>
+      <c r="X15">
+        <v>3.2</v>
+      </c>
+      <c r="Y15">
+        <v>112.69</v>
+      </c>
+      <c r="Z15">
+        <v>6.82</v>
+      </c>
       <c r="AC15" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -1897,22 +2146,25 @@
       <c r="AG15">
         <v>4.37473726272583</v>
       </c>
-      <c r="AH15" t="s">
-        <v>84</v>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:34">
+    <row r="16" spans="1:35">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>301312</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>-3.89</v>
@@ -1930,7 +2182,7 @@
         <v>74464.03</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K16">
         <v>19</v>
@@ -1971,8 +2223,23 @@
       <c r="W16">
         <v>-0.05</v>
       </c>
+      <c r="X16">
+        <v>4.58</v>
+      </c>
+      <c r="Y16">
+        <v>63.79</v>
+      </c>
+      <c r="Z16">
+        <v>9.039999999999999</v>
+      </c>
       <c r="AC16" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>1</v>
       </c>
       <c r="AF16">
         <v>0</v>
@@ -1980,22 +2247,25 @@
       <c r="AG16">
         <v>3.154725313186646</v>
       </c>
-      <c r="AH16" t="s">
-        <v>84</v>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34">
+    <row r="17" spans="1:35">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17">
         <v>301488</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E17">
         <v>-2.95</v>
@@ -2013,7 +2283,7 @@
         <v>113294.57</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K17">
         <v>7</v>
@@ -2054,8 +2324,23 @@
       <c r="W17">
         <v>-0.24</v>
       </c>
+      <c r="X17">
+        <v>16.86</v>
+      </c>
+      <c r="Y17">
+        <v>151</v>
+      </c>
+      <c r="Z17">
+        <v>19.82</v>
+      </c>
       <c r="AC17" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>1</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -2063,22 +2348,25 @@
       <c r="AG17">
         <v>-1.902382493019104</v>
       </c>
-      <c r="AH17" t="s">
-        <v>84</v>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34">
+    <row r="18" spans="1:35">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18">
         <v>688006</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>8.619999999999999</v>
@@ -2096,7 +2384,7 @@
         <v>141003.1</v>
       </c>
       <c r="J18" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -2137,8 +2425,23 @@
       <c r="W18">
         <v>0.35</v>
       </c>
+      <c r="X18">
+        <v>19.99</v>
+      </c>
+      <c r="Y18">
+        <v>38.54</v>
+      </c>
+      <c r="Z18">
+        <v>21.39</v>
+      </c>
       <c r="AC18" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
       </c>
       <c r="AF18">
         <v>0</v>
@@ -2146,22 +2449,25 @@
       <c r="AG18">
         <v>-0.216993510723114</v>
       </c>
-      <c r="AH18" t="s">
-        <v>84</v>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:34">
+    <row r="19" spans="1:35">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19">
         <v>688062</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19">
         <v>-10.12</v>
@@ -2179,7 +2485,7 @@
         <v>144418.48</v>
       </c>
       <c r="J19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K19">
         <v>8</v>
@@ -2220,8 +2526,23 @@
       <c r="W19">
         <v>-1.27</v>
       </c>
+      <c r="X19">
+        <v>7.38</v>
+      </c>
+      <c r="Y19">
+        <v>58.67</v>
+      </c>
+      <c r="Z19">
+        <v>8.85</v>
+      </c>
       <c r="AC19" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>1</v>
@@ -2229,22 +2550,25 @@
       <c r="AG19">
         <v>14.5913028717041</v>
       </c>
-      <c r="AH19" t="s">
-        <v>84</v>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34">
+    <row r="20" spans="1:35">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20">
         <v>688108</v>
       </c>
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20">
         <v>-1.6</v>
@@ -2262,7 +2586,7 @@
         <v>273255.14</v>
       </c>
       <c r="J20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -2303,8 +2627,23 @@
       <c r="W20">
         <v>-0.11</v>
       </c>
+      <c r="X20">
+        <v>-7.25</v>
+      </c>
+      <c r="Y20">
+        <v>36.72</v>
+      </c>
+      <c r="Z20">
+        <v>2.86</v>
+      </c>
       <c r="AC20" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -2312,22 +2651,25 @@
       <c r="AG20">
         <v>1.212753415107727</v>
       </c>
-      <c r="AH20" t="s">
-        <v>84</v>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34">
+    <row r="21" spans="1:35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C21">
         <v>688141</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21">
         <v>-2.31</v>
@@ -2345,7 +2687,7 @@
         <v>157298.39</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -2386,8 +2728,23 @@
       <c r="W21">
         <v>0.03</v>
       </c>
+      <c r="X21">
+        <v>12.29</v>
+      </c>
+      <c r="Y21">
+        <v>47.8</v>
+      </c>
+      <c r="Z21">
+        <v>15.24</v>
+      </c>
       <c r="AC21" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -2395,22 +2752,25 @@
       <c r="AG21">
         <v>1.238702535629272</v>
       </c>
-      <c r="AH21" t="s">
-        <v>84</v>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:34">
+    <row r="22" spans="1:35">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22">
         <v>688195</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22">
         <v>-7.38</v>
@@ -2428,7 +2788,7 @@
         <v>142421.94</v>
       </c>
       <c r="J22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K22">
         <v>14</v>
@@ -2469,8 +2829,23 @@
       <c r="W22">
         <v>0.09</v>
       </c>
+      <c r="X22">
+        <v>20</v>
+      </c>
+      <c r="Y22">
+        <v>92.77</v>
+      </c>
+      <c r="Z22">
+        <v>19.17</v>
+      </c>
       <c r="AC22" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -2478,22 +2853,25 @@
       <c r="AG22">
         <v>7.689028739929199</v>
       </c>
-      <c r="AH22" t="s">
-        <v>84</v>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:34">
+    <row r="23" spans="1:35">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23">
         <v>688222</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E23">
         <v>-6.53</v>
@@ -2511,7 +2889,7 @@
         <v>125532.48</v>
       </c>
       <c r="J23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K23">
         <v>5</v>
@@ -2552,8 +2930,23 @@
       <c r="W23">
         <v>-0.12</v>
       </c>
+      <c r="X23">
+        <v>-2.31</v>
+      </c>
+      <c r="Y23">
+        <v>27.7</v>
+      </c>
+      <c r="Z23">
+        <v>2.9</v>
+      </c>
       <c r="AC23" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
       </c>
       <c r="AF23">
         <v>0</v>
@@ -2561,22 +2954,25 @@
       <c r="AG23">
         <v>1.032985210418701</v>
       </c>
-      <c r="AH23" t="s">
-        <v>84</v>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34">
+    <row r="24" spans="1:35">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>688261</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E24">
         <v>-7.79</v>
@@ -2594,7 +2990,7 @@
         <v>81032.00999999999</v>
       </c>
       <c r="J24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K24">
         <v>2</v>
@@ -2635,8 +3031,23 @@
       <c r="W24">
         <v>-0.31</v>
       </c>
+      <c r="X24">
+        <v>3.67</v>
+      </c>
+      <c r="Y24">
+        <v>89.5</v>
+      </c>
+      <c r="Z24">
+        <v>5.29</v>
+      </c>
       <c r="AC24" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
       </c>
       <c r="AF24">
         <v>0</v>
@@ -2644,22 +3055,25 @@
       <c r="AG24">
         <v>7.543822288513184</v>
       </c>
-      <c r="AH24" t="s">
-        <v>84</v>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34">
+    <row r="25" spans="1:35">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C25">
         <v>688411</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E25">
         <v>2.85</v>
@@ -2677,7 +3091,7 @@
         <v>101557.94</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -2718,8 +3132,23 @@
       <c r="W25">
         <v>-0.39</v>
       </c>
+      <c r="X25">
+        <v>14.92</v>
+      </c>
+      <c r="Y25">
+        <v>185</v>
+      </c>
+      <c r="Z25">
+        <v>21.47</v>
+      </c>
       <c r="AC25" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>0</v>
@@ -2727,22 +3156,25 @@
       <c r="AG25">
         <v>0.2025858759880066</v>
       </c>
-      <c r="AH25" t="s">
-        <v>84</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34">
+    <row r="26" spans="1:35">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C26">
         <v>688498</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>-10.49</v>
@@ -2760,7 +3192,7 @@
         <v>279785.24</v>
       </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K26">
         <v>18</v>
@@ -2801,8 +3233,23 @@
       <c r="W26">
         <v>-0.2</v>
       </c>
+      <c r="X26">
+        <v>2.83</v>
+      </c>
+      <c r="Y26">
+        <v>390</v>
+      </c>
+      <c r="Z26">
+        <v>9.529999999999999</v>
+      </c>
       <c r="AC26" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -2810,22 +3257,25 @@
       <c r="AG26">
         <v>10.58339309692383</v>
       </c>
-      <c r="AH26" t="s">
-        <v>84</v>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34">
+    <row r="27" spans="1:35">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C27">
         <v>688709</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>-11.58</v>
@@ -2843,7 +3293,7 @@
         <v>142517.99</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K27">
         <v>10</v>
@@ -2884,8 +3334,23 @@
       <c r="W27">
         <v>-0.79</v>
       </c>
+      <c r="X27">
+        <v>1.8</v>
+      </c>
+      <c r="Y27">
+        <v>53.64</v>
+      </c>
+      <c r="Z27">
+        <v>6.62</v>
+      </c>
       <c r="AC27" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -2893,22 +3358,25 @@
       <c r="AG27">
         <v>6.437678813934326</v>
       </c>
-      <c r="AH27" t="s">
-        <v>84</v>
+      <c r="AH27">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34">
+    <row r="28" spans="1:35">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C28">
         <v>688717</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>-4.92</v>
@@ -2926,7 +3394,7 @@
         <v>87461.2</v>
       </c>
       <c r="J28" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K28">
         <v>2</v>
@@ -2967,8 +3435,23 @@
       <c r="W28">
         <v>0.87</v>
       </c>
+      <c r="X28">
+        <v>8.18</v>
+      </c>
+      <c r="Y28">
+        <v>84</v>
+      </c>
+      <c r="Z28">
+        <v>12.6</v>
+      </c>
       <c r="AC28" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -2976,8 +3459,11 @@
       <c r="AG28">
         <v>0.9900051951408386</v>
       </c>
-      <c r="AH28" t="s">
-        <v>84</v>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
